--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - whichRole" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>thisRole</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
   <si>
     <t>roleName</t>
@@ -23,7 +37,43 @@
     <t>rolePic</t>
   </si>
   <si>
-    <t>q_br.xlsx</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What industry are the business people in?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is being negotiated and how much money is at stake?</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the response to the proposed deal?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What comes about from the business proposal?</t>
+    </r>
+  </si>
+  <si>
+    <t>Is the deal fair?</t>
+  </si>
+  <si>
+    <t>How long does it take to make the deal?</t>
   </si>
   <si>
     <t>Business Reporter</t>
@@ -32,13 +82,449 @@
     <t>business_reporter.jpg</t>
   </si>
   <si>
-    <t>q_rc.xlsx</t>
+    <t>How is the restaurant decorated?</t>
+  </si>
+  <si>
+    <t>What are the menus like?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What do the clients order?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>How do the clients like the food?</t>
+  </si>
+  <si>
+    <t>How old is the waiter?</t>
+  </si>
+  <si>
+    <t>What meal is being served?</t>
   </si>
   <si>
     <t>Restaurant Critic</t>
   </si>
   <si>
     <t>restaurant_critic.jpg</t>
+  </si>
+  <si>
+    <t>Who notices who first? Why/how?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How does the couple start talking?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Which of the people proposes going on an actual date? What do they propose?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Who leaves first and why do they have to go?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Is the couple going to get married?</t>
+  </si>
+  <si>
+    <t>Who shows more interest?</t>
+  </si>
+  <si>
+    <t>Matchmaker</t>
+  </si>
+  <si>
+    <t>matchmaker.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How does the person who proposed feel before proposing?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the ring like?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Does anyone besides the person proposing help with the proposal?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Who witnessed the “yes”?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Is anyone taking pictures of the proposal?</t>
+  </si>
+  <si>
+    <t>How long does the proposal take?</t>
+  </si>
+  <si>
+    <t>Wedding Planner</t>
+  </si>
+  <si>
+    <t>weddingplanner.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>When the clients arrive at the airport, how much time do they have to go through?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What do the clients have do at security to comply with the security check?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How do the clients feel when they are  walking to the gates?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Where does each client sit on the plane?</t>
+  </si>
+  <si>
+    <t>Are the security guides friendly or rude?</t>
+  </si>
+  <si>
+    <t>Are the airport restrooms clean?</t>
+  </si>
+  <si>
+    <t>Airport Customer Experience Manager</t>
+  </si>
+  <si>
+    <t>acem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the grocery store like upon entering?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What items do the clients pick out?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How is the checkout line and how long do the clients wait in line?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How much are the groceries and what method of payment do the clients use?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
+  </si>
+  <si>
+    <t>What type of grocery bags do the clients use?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Grocery Store Customer Experience Manager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>gscem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lecture hall like?
+</t>
+  </si>
+  <si>
+    <t>What is class they are in and what is the day’s lecture about?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is something taught in lecture?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>When is the next assessment in the class?</t>
+  </si>
+  <si>
+    <t>Are the students paying attention?</t>
+  </si>
+  <si>
+    <t>Are the desks comfortable?</t>
+  </si>
+  <si>
+    <t>Dean of Academic Studies</t>
+  </si>
+  <si>
+    <t>dean.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How does the person who is initiating the breakup feel before they do it?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Why does the initiator want to break up?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the person being broken up with respond?
+</t>
+  </si>
+  <si>
+    <t>Do the partners leave on good terms?</t>
+  </si>
+  <si>
+    <t>Does the person being broken up with expect that this is coming?</t>
+  </si>
+  <si>
+    <t>For how long has the initiator been wanting to break up?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Couples Therapist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>couples.jpeg</t>
   </si>
 </sst>
 </file>
@@ -48,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -64,6 +550,51 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,48 +736,96 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,16 +1909,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.35156" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1352,214 +1932,450 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
+    <row r="2" ht="21.55" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+    <row r="3" ht="40.35" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+    <row r="4" ht="35.35" customHeight="1">
+      <c r="A4" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+    <row r="5" ht="36.35" customHeight="1">
+      <c r="A5" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+    <row r="6" ht="35.35" customHeight="1">
+      <c r="A6" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="17">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+    <row r="7" ht="45.35" customHeight="1">
+      <c r="A7" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+    <row r="8" ht="36.35" customHeight="1">
+      <c r="A8" t="s" s="23">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s" s="24">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+    <row r="9" ht="45.35" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s" s="17">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s" s="27">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -122,16 +122,13 @@
     <t>restaurant_critic.jpg</t>
   </si>
   <si>
-    <t>Who notices who first? Why/how?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How does the couple start talking?</t>
+      <t>Who notices who first and why do they notice the other?</t>
     </r>
     <r>
       <rPr>
@@ -146,11 +143,11 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Which of the people proposes going on an actual date? What do they propose?</t>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How does the couple start talking?</t>
     </r>
     <r>
       <rPr>
@@ -165,11 +162,11 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Who leaves first and why do they have to go?</t>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Which of the people proposes going on an actual date and what do they propose?</t>
     </r>
     <r>
       <rPr>
@@ -182,25 +179,13 @@
     </r>
   </si>
   <si>
-    <t>Is the couple going to get married?</t>
-  </si>
-  <si>
-    <t>Who shows more interest?</t>
-  </si>
-  <si>
-    <t>Matchmaker</t>
-  </si>
-  <si>
-    <t>matchmaker.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the person who proposed feel before proposing?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Who leaves first and why do they have to go?</t>
     </r>
     <r>
       <rPr>
@@ -213,6 +198,37 @@
     </r>
   </si>
   <si>
+    <t>Is the couple going to get married?</t>
+  </si>
+  <si>
+    <t>Who shows more interest?</t>
+  </si>
+  <si>
+    <t>Matchmaker</t>
+  </si>
+  <si>
+    <t>matchmaker.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How does the person who proposed feel before proposing?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">What is the ring like?
 </t>
   </si>
@@ -417,7 +433,23 @@
 </t>
   </si>
   <si>
-    <t>What is class they are in and what is the day’s lecture about?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What class are the students  in and what is the day’s lecture about?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -736,7 +768,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -785,6 +817,9 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
@@ -811,6 +846,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" readingOrder="1"/>
@@ -2013,10 +2051,10 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" ht="35.35" customHeight="1">
-      <c r="A4" t="s" s="15">
+      <c r="A4" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="B4" t="s" s="18">
         <v>25</v>
       </c>
       <c r="C4" t="s" s="12">
@@ -2043,10 +2081,10 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" ht="36.35" customHeight="1">
-      <c r="A5" t="s" s="18">
+      <c r="A5" t="s" s="19">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="20">
+      <c r="B5" t="s" s="21">
         <v>33</v>
       </c>
       <c r="C5" t="s" s="12">
@@ -2073,16 +2111,16 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" ht="35.35" customHeight="1">
-      <c r="A6" t="s" s="18">
+      <c r="A6" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="17">
+      <c r="B6" t="s" s="18">
         <v>41</v>
       </c>
       <c r="C6" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" t="s" s="22">
         <v>43</v>
       </c>
       <c r="E6" t="s" s="11">
@@ -2103,10 +2141,10 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" ht="45.35" customHeight="1">
-      <c r="A7" t="s" s="23">
+      <c r="A7" t="s" s="24">
         <v>48</v>
       </c>
-      <c r="B7" t="s" s="20">
+      <c r="B7" t="s" s="21">
         <v>49</v>
       </c>
       <c r="C7" t="s" s="12">
@@ -2133,16 +2171,16 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" ht="36.35" customHeight="1">
-      <c r="A8" t="s" s="23">
+      <c r="A8" t="s" s="24">
         <v>56</v>
       </c>
-      <c r="B8" t="s" s="24">
+      <c r="B8" t="s" s="26">
         <v>57</v>
       </c>
       <c r="C8" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="25">
+      <c r="D8" t="s" s="27">
         <v>59</v>
       </c>
       <c r="E8" t="s" s="11">
@@ -2163,16 +2201,16 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" ht="45.35" customHeight="1">
-      <c r="A9" t="s" s="18">
+      <c r="A9" t="s" s="19">
         <v>64</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="B9" t="s" s="18">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="26">
+      <c r="C9" t="s" s="28">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="27">
+      <c r="D9" t="s" s="29">
         <v>67</v>
       </c>
       <c r="E9" t="s" s="11">
@@ -2193,8 +2231,8 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2207,8 +2245,8 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2221,8 +2259,8 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2235,8 +2273,8 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -2249,8 +2287,8 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -2263,8 +2301,8 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2277,8 +2315,8 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2291,8 +2329,8 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2305,8 +2343,8 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -2319,8 +2357,8 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2333,8 +2371,8 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -2347,8 +2385,8 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -2361,8 +2399,8 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -1,6 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -239,7 +240,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Does anyone besides the person proposing help with the proposal?</t>
+      <t>Does anyone help with the proposal?</t>
     </r>
     <r>
       <rPr>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -80,7 +80,7 @@
     <t>Business Reporter</t>
   </si>
   <si>
-    <t>business_reporter.jpg</t>
+    <t>jobphotos/business_reporter.jpg</t>
   </si>
   <si>
     <t>How is the restaurant decorated?</t>
@@ -120,7 +120,7 @@
     <t>Restaurant Critic</t>
   </si>
   <si>
-    <t>restaurant_critic.jpg</t>
+    <t>jobphotos/restaurant_critic.jpg</t>
   </si>
   <si>
     <r>
@@ -208,7 +208,7 @@
     <t>Matchmaker</t>
   </si>
   <si>
-    <t>matchmaker.jpg</t>
+    <t>jobphotos/matchmaker.jpg</t>
   </si>
   <si>
     <r>
@@ -281,7 +281,7 @@
     <t>Wedding Planner</t>
   </si>
   <si>
-    <t>weddingplanner.jpg</t>
+    <t>jobphotos/weddingplanner.jpg</t>
   </si>
   <si>
     <r>
@@ -353,7 +353,7 @@
     <t>Airport Customer Experience Manager</t>
   </si>
   <si>
-    <t>acem.jpg</t>
+    <t>jobphotos/acem.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">What is the grocery store like upon entering?
@@ -427,7 +427,7 @@
     </r>
   </si>
   <si>
-    <t>gscem.jpg</t>
+    <t>jobphotos/gscem.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">What is the lecture hall like?
@@ -484,7 +484,7 @@
     <t>Dean of Academic Studies</t>
   </si>
   <si>
-    <t>dean.jpg</t>
+    <t>jobphotos/dean.jpg</t>
   </si>
   <si>
     <r>
@@ -557,7 +557,7 @@
     </r>
   </si>
   <si>
-    <t>couples.jpeg</t>
+    <t>jobphotos/couples.jpeg</t>
   </si>
 </sst>
 </file>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -129,7 +129,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Who notices who first and why do they notice the other?</t>
+      <t>Who notices whom first and why do they notice the other?</t>
     </r>
     <r>
       <rPr>
@@ -290,7 +290,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>When the clients arrive at the airport, how much time do they have to go through?</t>
+      <t>When the travelers arrive at the airport, how much time do they have to go through the airport?</t>
     </r>
     <r>
       <rPr>
@@ -309,7 +309,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What do the clients have do at security to comply with the security check?</t>
+      <t>What do the travelers have to do at security to comply with the security check?</t>
     </r>
     <r>
       <rPr>
@@ -328,7 +328,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How do the clients feel when they are  walking to the gates?</t>
+      <t>How do the travelers feel when they are  walking to the gates?</t>
     </r>
     <r>
       <rPr>
@@ -341,10 +341,10 @@
     </r>
   </si>
   <si>
-    <t>Where does each client sit on the plane?</t>
-  </si>
-  <si>
-    <t>Are the security guides friendly or rude?</t>
+    <t>Where does each traveler sit on the plane?</t>
+  </si>
+  <si>
+    <t>Are the security guards friendly or rude?</t>
   </si>
   <si>
     <t>Are the airport restrooms clean?</t>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -440,7 +440,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What class are the students  in and what is the day’s lecture about?</t>
+      <t>What class are the students in and what is the day’s lecture about?</t>
     </r>
     <r>
       <rPr>
@@ -1954,7 +1954,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.0156" style="1" customWidth="1"/>
     <col min="2" max="7" width="15.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
     <col min="9" max="12" width="8.35156" style="1" customWidth="1"/>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -328,7 +328,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How do the travelers feel when they are  walking to the gates?</t>
+      <t>How do the travelers feel when they are walking to the gates?</t>
     </r>
     <r>
       <rPr>
@@ -440,7 +440,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What class are the students in and what is the day’s lecture about?</t>
+      <t>What class are the students in and what is the day’s lecture about?</t>
     </r>
     <r>
       <rPr>
@@ -571,7 +571,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -789,7 +789,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -801,7 +801,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -810,16 +810,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -831,34 +831,34 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -1955,9 +1955,17 @@
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23.0156" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.35156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.35156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
     <col min="13" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -44,58 +44,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What industry are the business people in?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is being negotiated and how much money is at stake?</t>
-    </r>
-  </si>
-  <si>
-    <t>What is the response to the proposed deal?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What comes about from the business proposal?</t>
-    </r>
-  </si>
-  <si>
-    <t>Is the deal fair?</t>
-  </si>
-  <si>
-    <t>How long does it take to make the deal?</t>
-  </si>
-  <si>
-    <t>Business Reporter</t>
-  </si>
-  <si>
-    <t>jobphotos/business_reporter.jpg</t>
-  </si>
-  <si>
-    <t>How is the restaurant decorated?</t>
-  </si>
-  <si>
-    <t>What are the menus like?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What do the clients order?</t>
+      <t>What are the job titles of both of the business people?</t>
     </r>
     <r>
       <rPr>
@@ -108,28 +57,13 @@
     </r>
   </si>
   <si>
-    <t>How do the clients like the food?</t>
-  </si>
-  <si>
-    <t>How old is the waiter?</t>
-  </si>
-  <si>
-    <t>What meal is being served?</t>
-  </si>
-  <si>
-    <t>Restaurant Critic</t>
-  </si>
-  <si>
-    <t>jobphotos/restaurant_critic.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Who notices whom first and why do they notice the other?</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How much money is at stake in the initial offer made?</t>
     </r>
     <r>
       <rPr>
@@ -142,13 +76,44 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the couple start talking?</t>
+    <t xml:space="preserve">What is the name of the other industry competitor? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>With what gesture do the business partners secure the deal?</t>
+    </r>
+  </si>
+  <si>
+    <t>Is the deal fair?</t>
+  </si>
+  <si>
+    <t>How long does it take to make the deal?</t>
+  </si>
+  <si>
+    <t>Business Reporter</t>
+  </si>
+  <si>
+    <t>jobphotos/business_reporter.jpg</t>
+  </si>
+  <si>
+    <t>How is the restaurant decorated?</t>
+  </si>
+  <si>
+    <t>What are the menus like?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What do the clients order?</t>
     </r>
     <r>
       <rPr>
@@ -161,13 +126,58 @@
     </r>
   </si>
   <si>
+    <t>How do the clients like the food?</t>
+  </si>
+  <si>
+    <t>How old is the waiter?</t>
+  </si>
+  <si>
+    <t>What meal is being served?</t>
+  </si>
+  <si>
+    <t>Restaurant Critic</t>
+  </si>
+  <si>
+    <t>jobphotos/restaurant_critic.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What object is the initiator holding when he first notices the other person?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial question that begins the conversation between the couple?</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Which of the people proposes going on an actual date and what do they propose?</t>
+      <t>When will be the next time the couple meet and for what occasion?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What time is it when they part?</t>
     </r>
     <r>
       <rPr>
@@ -180,13 +190,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Who leaves first and why do they have to go?</t>
+    <t>Is the couple going to get married?</t>
+  </si>
+  <si>
+    <t>Who shows more interest?</t>
+  </si>
+  <si>
+    <t>Matchmaker</t>
+  </si>
+  <si>
+    <t>jobphotos/matchmaker.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>For how many years has the couple been dating?</t>
     </r>
     <r>
       <rPr>
@@ -199,25 +221,17 @@
     </r>
   </si>
   <si>
-    <t>Is the couple going to get married?</t>
-  </si>
-  <si>
-    <t>Who shows more interest?</t>
-  </si>
-  <si>
-    <t>Matchmaker</t>
-  </si>
-  <si>
-    <t>jobphotos/matchmaker.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the person who proposed feel before proposing?</t>
+    <t xml:space="preserve">How many diamonds are on the ring and what is the color?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>In/on what item is the ring presented?</t>
     </r>
     <r>
       <rPr>
@@ -230,17 +244,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">What is the ring like?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Does anyone help with the proposal?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Who does the new fiancee text first?</t>
     </r>
     <r>
       <rPr>
@@ -253,13 +263,25 @@
     </r>
   </si>
   <si>
+    <t>Is anyone taking pictures of the proposal?</t>
+  </si>
+  <si>
+    <t>How long does the proposal take?</t>
+  </si>
+  <si>
+    <t>Wedding Planner</t>
+  </si>
+  <si>
+    <t>jobphotos/weddingplanner.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Who witnessed the “yes”?</t>
+      <t>When the clients arrive at the airport, how much time do they have until their flight departs?</t>
     </r>
     <r>
       <rPr>
@@ -272,25 +294,13 @@
     </r>
   </si>
   <si>
-    <t>Is anyone taking pictures of the proposal?</t>
-  </si>
-  <si>
-    <t>How long does the proposal take?</t>
-  </si>
-  <si>
-    <t>Wedding Planner</t>
-  </si>
-  <si>
-    <t>jobphotos/weddingplanner.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>When the travelers arrive at the airport, how much time do they have to go through the airport?</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What do the clients have to do to comply with security before being scanned in the metal detector?</t>
     </r>
     <r>
       <rPr>
@@ -305,11 +315,11 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What do the travelers have to do at security to comply with the security check?</t>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Toward which gate are the clients walking?</t>
     </r>
     <r>
       <rPr>
@@ -322,13 +332,36 @@
     </r>
   </si>
   <si>
+    <t>In what section and seat does each client sit on the plane?</t>
+  </si>
+  <si>
+    <t>Are the security guards friendly or rude?</t>
+  </si>
+  <si>
+    <t>Are the airport restrooms clean?</t>
+  </si>
+  <si>
+    <t>Airport Customer Experience Manager</t>
+  </si>
+  <si>
+    <t>jobphotos/acem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the grocery store like upon entering?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What items do the clients pick out?
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How do the travelers feel when they are walking to the gates?</t>
+      <t>How many checkout lanes are open and which one do they step into?</t>
     </r>
     <r>
       <rPr>
@@ -341,36 +374,13 @@
     </r>
   </si>
   <si>
-    <t>Where does each traveler sit on the plane?</t>
-  </si>
-  <si>
-    <t>Are the security guards friendly or rude?</t>
-  </si>
-  <si>
-    <t>Are the airport restrooms clean?</t>
-  </si>
-  <si>
-    <t>Airport Customer Experience Manager</t>
-  </si>
-  <si>
-    <t>jobphotos/acem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the grocery store like upon entering?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What items do the clients pick out?
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How is the checkout line and how long do the clients wait in line?</t>
+      <t>How much are the groceries and what method of payment do the clients use?</t>
     </r>
     <r>
       <rPr>
@@ -383,13 +393,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How much are the groceries and what method of payment do the clients use?</t>
+    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
+  </si>
+  <si>
+    <t>What type of grocery bags do the clients use?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Grocery Store Customer Experience Manager</t>
     </r>
     <r>
       <rPr>
@@ -402,19 +418,20 @@
     </r>
   </si>
   <si>
-    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
-  </si>
-  <si>
-    <t>What type of grocery bags do the clients use?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Grocery Store Customer Experience Manager</t>
+    <t>jobphotos/gscem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lecture hall like?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What class are the students in and what is the day’s lecture about?</t>
     </r>
     <r>
       <rPr>
@@ -427,20 +444,13 @@
     </r>
   </si>
   <si>
-    <t>jobphotos/gscem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the lecture hall like?
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What class are the students in and what is the day’s lecture about?</t>
+      <t>What is something taught in lecture?</t>
     </r>
     <r>
       <rPr>
@@ -453,13 +463,38 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is something taught in lecture?</t>
+    <t>What is the next assessment in class and when is it due/scheduled?</t>
+  </si>
+  <si>
+    <t>Are the students paying attention?</t>
+  </si>
+  <si>
+    <t>Are the desks comfortable?</t>
+  </si>
+  <si>
+    <t>Dean of Academic Studies</t>
+  </si>
+  <si>
+    <t>jobphotos/dean.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>For how long has the initiator of the break up been thinking about breaking up with their partner?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial reason stated by the initiator for why they are breaking up?</t>
     </r>
     <r>
       <rPr>
@@ -472,64 +507,10 @@
     </r>
   </si>
   <si>
-    <t>When is the next assessment in the class?</t>
-  </si>
-  <si>
-    <t>Are the students paying attention?</t>
-  </si>
-  <si>
-    <t>Are the desks comfortable?</t>
-  </si>
-  <si>
-    <t>Dean of Academic Studies</t>
-  </si>
-  <si>
-    <t>jobphotos/dean.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the person who is initiating the breakup feel before they do it?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Why does the initiator want to break up?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">How does the person being broken up with respond?
-</t>
-  </si>
-  <si>
-    <t>Do the partners leave on good terms?</t>
+    <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that they do or do not want to break up?</t>
+  </si>
+  <si>
+    <t>What object(s) do either partner ask for back?</t>
   </si>
   <si>
     <t>Does the person being broken up with expect that this is coming?</t>
@@ -567,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -579,6 +560,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -586,6 +572,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
@@ -600,17 +596,7 @@
       <name val="Times"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
@@ -630,7 +616,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -769,101 +761,92 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -887,6 +870,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -903,10 +887,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1083,11 +1067,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1096,27 +1083,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -1373,10 +1360,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1667,7 +1654,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1954,18 +1941,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.0156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="7" width="15.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.35156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.35156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.35156" style="1" customWidth="1"/>
     <col min="13" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2000,124 +1979,124 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="H2" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" ht="40.35" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="13">
+      <c r="D3" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="11">
+      <c r="G3" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="11">
+      <c r="H3" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" ht="35.35" customHeight="1">
-      <c r="A4" t="s" s="16">
+      <c r="A4" t="s" s="17">
         <v>24</v>
       </c>
       <c r="B4" t="s" s="18">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" t="s" s="15">
         <v>29</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="G4" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" ht="36.35" customHeight="1">
       <c r="A5" t="s" s="19">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" t="s" s="20">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" t="s" s="15">
         <v>36</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" t="s" s="15">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="11">
+      <c r="G5" t="s" s="15">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="11">
+      <c r="H5" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" ht="35.35" customHeight="1">
       <c r="A6" t="s" s="19">
@@ -2126,88 +2105,88 @@
       <c r="B6" t="s" s="18">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="22">
+      <c r="D6" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" t="s" s="15">
         <v>44</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" t="s" s="15">
         <v>45</v>
       </c>
-      <c r="G6" t="s" s="11">
+      <c r="G6" t="s" s="15">
         <v>46</v>
       </c>
-      <c r="H6" t="s" s="11">
+      <c r="H6" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" ht="45.35" customHeight="1">
-      <c r="A7" t="s" s="24">
+      <c r="A7" t="s" s="22">
         <v>48</v>
       </c>
-      <c r="B7" t="s" s="21">
+      <c r="B7" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" t="s" s="15">
         <v>52</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" t="s" s="15">
         <v>53</v>
       </c>
-      <c r="G7" t="s" s="12">
+      <c r="G7" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="H7" t="s" s="11">
+      <c r="H7" t="s" s="15">
         <v>55</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" ht="36.35" customHeight="1">
-      <c r="A8" t="s" s="24">
+      <c r="A8" t="s" s="22">
         <v>56</v>
       </c>
-      <c r="B8" t="s" s="26">
+      <c r="B8" t="s" s="23">
         <v>57</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="27">
+      <c r="D8" t="s" s="24">
         <v>59</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" t="s" s="15">
         <v>60</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" t="s" s="15">
         <v>61</v>
       </c>
-      <c r="G8" t="s" s="11">
+      <c r="G8" t="s" s="15">
         <v>62</v>
       </c>
-      <c r="H8" t="s" s="11">
+      <c r="H8" t="s" s="15">
         <v>63</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" ht="45.35" customHeight="1">
       <c r="A9" t="s" s="19">
@@ -2216,210 +2195,210 @@
       <c r="B9" t="s" s="18">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="28">
+      <c r="C9" t="s" s="25">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="29">
+      <c r="D9" t="s" s="26">
         <v>67</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="E9" t="s" s="15">
         <v>68</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" t="s" s="15">
         <v>69</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="11">
+      <c r="H9" t="s" s="15">
         <v>71</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -221,7 +221,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">How many diamonds are on the ring and what is the color?
+    <t xml:space="preserve">How many diamonds are on the ring and what is the diamond color?
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -586,17 +586,7 @@
       <name val="Times"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
@@ -761,7 +751,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -775,18 +765,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -798,7 +782,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -813,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -825,16 +809,16 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1979,426 +1963,426 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="D2" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="9">
+      <c r="E2" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="9">
+      <c r="F2" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="9">
+      <c r="G2" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="H2" t="s" s="9">
+      <c r="H2" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" ht="40.35" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="A3" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C3" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="E3" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="15">
+      <c r="F3" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="15">
+      <c r="G3" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="15">
+      <c r="H3" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" ht="35.35" customHeight="1">
-      <c r="A4" t="s" s="17">
+      <c r="A4" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="18">
+      <c r="B4" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="D4" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="F4" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="G4" t="s" s="15">
+      <c r="G4" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="H4" t="s" s="15">
+      <c r="H4" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" ht="36.35" customHeight="1">
-      <c r="A5" t="s" s="19">
+      <c r="A5" t="s" s="17">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="20">
+      <c r="B5" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="F5" t="s" s="15">
+      <c r="F5" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="15">
+      <c r="G5" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="15">
+      <c r="H5" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" ht="35.35" customHeight="1">
-      <c r="A6" t="s" s="19">
+      <c r="A6" t="s" s="17">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="18">
+      <c r="B6" t="s" s="16">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" t="s" s="19">
         <v>43</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="F6" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="G6" t="s" s="15">
+      <c r="G6" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="H6" t="s" s="15">
+      <c r="H6" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" ht="45.35" customHeight="1">
-      <c r="A7" t="s" s="22">
+      <c r="A7" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="B7" t="s" s="20">
+      <c r="B7" t="s" s="18">
         <v>49</v>
       </c>
-      <c r="C7" t="s" s="13">
+      <c r="C7" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="D7" t="s" s="13">
+      <c r="D7" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F7" t="s" s="15">
+      <c r="F7" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="G7" t="s" s="13">
+      <c r="G7" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="H7" t="s" s="15">
+      <c r="H7" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" ht="36.35" customHeight="1">
-      <c r="A8" t="s" s="22">
+      <c r="A8" t="s" s="20">
         <v>56</v>
       </c>
-      <c r="B8" t="s" s="23">
+      <c r="B8" t="s" s="21">
         <v>57</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C8" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="24">
+      <c r="D8" t="s" s="22">
         <v>59</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F8" t="s" s="15">
+      <c r="F8" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="G8" t="s" s="15">
+      <c r="G8" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="H8" t="s" s="15">
+      <c r="H8" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" ht="45.35" customHeight="1">
-      <c r="A9" t="s" s="19">
+      <c r="A9" t="s" s="17">
         <v>64</v>
       </c>
-      <c r="B9" t="s" s="18">
+      <c r="B9" t="s" s="16">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="25">
+      <c r="C9" t="s" s="23">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="26">
+      <c r="D9" t="s" s="24">
         <v>67</v>
       </c>
-      <c r="E9" t="s" s="15">
+      <c r="E9" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F9" t="s" s="15">
+      <c r="F9" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="G9" t="s" s="13">
+      <c r="G9" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="15">
+      <c r="H9" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -147,7 +147,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What object is the initiator holding when he first notices the other person?</t>
+      <t>What object is the initiator of the interaction holding when he/she first notices the other person?</t>
     </r>
   </si>
   <si>
@@ -167,7 +167,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>When will be the next time the couple meet and for what occasion?</t>
+      <t>When will be the next time the couple meets and for what occasion?</t>
     </r>
   </si>
   <si>
@@ -177,7 +177,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What time is it when they part?</t>
+      <t>What time is it when the couple parts?</t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,17 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What do the clients have to do to comply with security before being scanned in the metal detector?</t>
+      <t>What is the reason for the hold-up at security?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Toward which gate are the clients walking?</t>
     </r>
     <r>
       <rPr>
@@ -313,13 +323,37 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">What section and seat does each client sit in on the plane?
+</t>
+  </si>
+  <si>
+    <t>Are the security guards friendly or rude?</t>
+  </si>
+  <si>
+    <t>Are the airport restrooms clean?</t>
+  </si>
+  <si>
+    <t>Airport Customer Experience Manager</t>
+  </si>
+  <si>
+    <t>jobphotos/acem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the grocery store like upon entering?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What items do the clients pick out?
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Toward which gate are the clients walking?</t>
+      <t>How many checkout lanes are open and which one do the clients step into?</t>
     </r>
     <r>
       <rPr>
@@ -332,36 +366,13 @@
     </r>
   </si>
   <si>
-    <t>In what section and seat does each client sit on the plane?</t>
-  </si>
-  <si>
-    <t>Are the security guards friendly or rude?</t>
-  </si>
-  <si>
-    <t>Are the airport restrooms clean?</t>
-  </si>
-  <si>
-    <t>Airport Customer Experience Manager</t>
-  </si>
-  <si>
-    <t>jobphotos/acem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the grocery store like upon entering?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What items do the clients pick out?
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How many checkout lanes are open and which one do they step into?</t>
+      <t>How much are the groceries and what method of payment do the clients use?</t>
     </r>
     <r>
       <rPr>
@@ -374,13 +385,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How much are the groceries and what method of payment do the clients use?</t>
+    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
+  </si>
+  <si>
+    <t>What type of grocery bags do the clients use?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Grocery Store Customer Experience Manager</t>
     </r>
     <r>
       <rPr>
@@ -393,19 +410,20 @@
     </r>
   </si>
   <si>
-    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
-  </si>
-  <si>
-    <t>What type of grocery bags do the clients use?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Grocery Store Customer Experience Manager</t>
+    <t>jobphotos/gscem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lecture hall like?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What class are the students in and what is the day’s lecture about?</t>
     </r>
     <r>
       <rPr>
@@ -418,20 +436,13 @@
     </r>
   </si>
   <si>
-    <t>jobphotos/gscem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the lecture hall like?
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What class are the students in and what is the day’s lecture about?</t>
+      <t>What is something taught in lecture?</t>
     </r>
     <r>
       <rPr>
@@ -444,13 +455,38 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is something taught in lecture?</t>
+    <t>What is the next assessment/assignment in class and when is it scheduled/due?</t>
+  </si>
+  <si>
+    <t>Are the students paying attention?</t>
+  </si>
+  <si>
+    <t>Are the desks comfortable?</t>
+  </si>
+  <si>
+    <t>Dean of Academic Studies</t>
+  </si>
+  <si>
+    <t>jobphotos/dean.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>For how long has the initiator of the breakup been thinking about breaking up with his/her partner?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial reason stated by the initiator for why he/she is breaking up?</t>
     </r>
     <r>
       <rPr>
@@ -463,51 +499,7 @@
     </r>
   </si>
   <si>
-    <t>What is the next assessment in class and when is it due/scheduled?</t>
-  </si>
-  <si>
-    <t>Are the students paying attention?</t>
-  </si>
-  <si>
-    <t>Are the desks comfortable?</t>
-  </si>
-  <si>
-    <t>Dean of Academic Studies</t>
-  </si>
-  <si>
-    <t>jobphotos/dean.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>For how long has the initiator of the break up been thinking about breaking up with their partner?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is the initial reason stated by the initiator for why they are breaking up?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that they do or do not want to break up?</t>
+    <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?</t>
   </si>
   <si>
     <t>What object(s) do either partner ask for back?</t>
@@ -557,7 +549,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="13"/>
@@ -761,7 +753,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -776,7 +768,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -794,7 +786,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -810,7 +802,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -827,10 +819,10 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -903,14 +895,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -1091,9 +1083,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1662,9 +1654,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1926,9 +1918,17 @@
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.35156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.35156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
     <col min="13" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2388,7 +2388,7 @@
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -502,13 +502,13 @@
     <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?</t>
   </si>
   <si>
-    <t>What object(s) do either partner ask for back?</t>
+    <t>What objects do either partner want back?</t>
   </si>
   <si>
     <t>Does the person being broken up with expect that this is coming?</t>
   </si>
   <si>
-    <t>For how long has the initiator been wanting to break up?</t>
+    <t>Who witnesses the breakup?</t>
   </si>
   <si>
     <r>
@@ -530,7 +530,7 @@
     </r>
   </si>
   <si>
-    <t>jobphotos/couples.jpeg</t>
+    <t>jobphotos/couples.jpg</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1083,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1654,10 +1654,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/whichRole.xlsx
+++ b/whichRole.xlsx
@@ -502,7 +502,7 @@
     <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?</t>
   </si>
   <si>
-    <t>What objects do either partner want back?</t>
+    <t>What objects does either partner want back?</t>
   </si>
   <si>
     <t>Does the person being broken up with expect that this is coming?</t>
